--- a/results/pseudomonas_putida/Zinc_Study/pseudomonas_putida_carbon_source_functional_composition.xlsx
+++ b/results/pseudomonas_putida/Zinc_Study/pseudomonas_putida_carbon_source_functional_composition.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,144 +456,885 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Amino acid</t>
+          <t>Acetate specific response</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.514657980456026</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>5.756578947368421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Carbon</t>
+          <t>Acetate utilization</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.13246471226927</v>
+        <v>0.2185792349726776</v>
       </c>
       <c r="C3" t="n">
-        <v>22.20394736842105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Element homeostasis</t>
+          <t>Acetoin catabolism</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.49728555917481</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>5.098684210526316</v>
+        <v>0.1712328767123288</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Energy generation</t>
+          <t>Alcohol/aromatics catabolism</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.737242128121607</v>
+        <v>0.1092896174863388</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3289473684210526</v>
+        <v>1.883561643835616</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Genomic</t>
+          <t>Alginate biosynthesis</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.411509229098806</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.644736842105263</v>
+        <v>0.8561643835616438</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Phage</t>
+          <t>Amino acid transportation</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1085776330076004</v>
+        <v>1.311475409836066</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secondary metabolite</t>
+          <t>Aromatic acid catabolism</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.38870792616721</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1644736842105263</v>
+        <v>4.623287671232877</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Stress</t>
+          <t>Benzoate catabolism</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.65798045602606</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>14.63815789473684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Structural components</t>
+          <t>Biosynthesis of lipodepsinonapeptide phytotoxins</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.2185792349726776</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9868421052631579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Translation</t>
+          <t>Branched amino acid transportation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.428881650380022</v>
+        <v>0.1092896174863388</v>
       </c>
       <c r="C11" t="n">
-        <v>2.796052631578947</v>
+        <v>0.1712328767123288</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Uncharacterized</t>
+          <t>C2 carbon metabolism</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23.9956568946797</v>
+        <v>2.185792349726776</v>
       </c>
       <c r="C12" t="n">
-        <v>17.26973684210526</v>
+        <v>2.054794520547945</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Cell mobility</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Chaeperone</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1092896174863388</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Citrate transportation</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2185792349726776</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5136986301369862</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Fatty acid catabolism</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2.841530054644809</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.054794520547945</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Flagella synthesis</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>FleQ related exporters, aldehyde stress</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1092896174863388</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1712328767123288</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Fructose catabolism</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1092896174863388</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1712328767123288</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Galactose ALE specific</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9836065573770493</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.684931506849315</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Glycine Betaine Catabolism</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3.278688524590164</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.082191780821918</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Glycine metabolism</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3.387978142076502</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.253424657534246</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Glycolate catabolism</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3278688524590164</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.2185792349726776</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Histidine metabolism</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1.202185792349727</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8561643835616438</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Homocysteine metabolism</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1092896174863388</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>ICE related</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1092896174863388</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1712328767123288</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Inorganic ion transport and metabolism</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.546448087431694</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.5136986301369862</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Lactate catabolism</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.3278688524590164</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5136986301369862</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Light inducible iModulon</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.2185792349726776</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1712328767123288</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Metal homeostasis</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.2185792349726776</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1712328767123288</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Metal related response</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1.639344262295082</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.568493150684931</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Muconate production study</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.420765027322404</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.541095890410959</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Multiple stress response</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3.278688524590164</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.883561643835616</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Multiple stress response, PP_3231-89</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_0943, hypothetical protein, 393 bp</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2.73224043715847</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.568493150684931</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_1176 hypothetical protein, 135 bp</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_1864, hypothetical protein, 153 bp</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_2520 hypothetical protein, 117 bp</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_5437 hypothetical protein, 183 bp</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Noise, kdpF, too small peptide</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>13.44262295081967</v>
+      </c>
+      <c r="C42" t="n">
+        <v>9.246575342465754</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Osmotic stress response</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.4371584699453552</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.027397260273972</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Osmotic stress, lipoprotein, membrane</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.3278688524590164</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.3424657534246575</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Oxidative stress</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.8743169398907104</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.541095890410959</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>PP_2260-3, sugar transport</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>PP_3636-3639</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Pentose and glucuronate interconversions</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.546448087431694</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.8561643835616438</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Phage related</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.1092896174863388</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Polyamine metabolism</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1.092896174863388</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.1712328767123288</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Protein synthesis</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2.622950819672131</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.1712328767123288</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Pyoverdine biosynthesis</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2.185792349726776</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.1712328767123288</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Redox state homeostasis</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1.202185792349727</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Ribose and lipid catabolism</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>4.699453551912568</v>
+      </c>
+      <c r="C54" t="n">
+        <v>5.308219178082192</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Ribose, nicotinic acid catabolism</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1.202185792349727</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.36986301369863</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Starvation response</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2.185792349726776</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.568493150684931</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Stationary phase response</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3.715846994535519</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3.424657534246575</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Sugar catabolism</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2.076502732240437</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.027397260273972</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Sulfur metabolism</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.1092896174863388</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.054794520547945</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>T6SS system</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.1712328767123288</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>TCA cycle</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1.748633879781421</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.5136986301369862</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Translation</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2.73224043715847</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2.568493150684931</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Triethylamine hydrogen sulfate stress</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.2185792349726776</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>TurA deletion</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>TurB deletion</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Tyrosine metabolism</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.4371584699453552</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>6.33879781420765</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4.452054794520548</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>mfsR related</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.3278688524590164</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>potentially iron metabolism</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.6557377049180328</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.3424657534246575</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +1348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1644736842105263</v>
+        <v>0.5854800936768151</v>
       </c>
     </row>
     <row r="3">
@@ -652,501 +1393,501 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1085776330076004</v>
+        <v>0.2354788069073783</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1644736842105263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>4.78806907378336</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6578947368421052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>S_Alanine_and_Aspartate_Metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.085776330076004</v>
+        <v>0.2354788069073783</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3289473684210526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>S_Alginate_biosynthesis</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2171552660152009</v>
+        <v>0.07849293563579278</v>
       </c>
       <c r="C6" t="n">
-        <v>2.631578947368421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3257328990228013</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.151315789473684</v>
+        <v>0.234192037470726</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
+          <t>S_Alanine_and_Aspartate_Metabolism</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1085776330076004</v>
+        <v>0.4709576138147566</v>
       </c>
       <c r="C8" t="n">
-        <v>1.480263157894737</v>
+        <v>0.234192037470726</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
+          <t>S_Alginate_biosynthesis</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1644736842105263</v>
+        <v>3.981264637002342</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
+          <t>S_Alternate_Carbon</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.2354788069073783</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4934210526315789</v>
+        <v>1.053864168618267</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
+          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8223684210526315</v>
+        <v>1.053864168618267</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
+          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5428881650380022</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1644736842105263</v>
+        <v>0.117096018735363</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
+          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5428881650380022</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3289473684210526</v>
+        <v>0.234192037470726</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
+          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.931596091205212</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>3.289473684210526</v>
+        <v>0.936768149882904</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
+          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6514657980456027</v>
+        <v>0.3924646781789639</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8223684210526315</v>
+        <v>0.117096018735363</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
+          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2171552660152009</v>
+        <v>0.3924646781789639</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6578947368421052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4343105320304018</v>
+        <v>1.41287284144427</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3289473684210526</v>
+        <v>1.756440281030445</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.3924646781789639</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4934210526315789</v>
+        <v>1.17096018735363</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6514657980456027</v>
+        <v>0.1569858712715856</v>
       </c>
       <c r="C19" t="n">
-        <v>1.644736842105263</v>
+        <v>2.459016393442623</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>S_Arginine_and_Proline_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.49728555917481</v>
+        <v>0.1569858712715856</v>
       </c>
       <c r="C20" t="n">
-        <v>1.644736842105263</v>
+        <v>0.234192037470726</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1085776330076004</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>3.782894736842105</v>
+        <v>0.351288056206089</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6578947368421052</v>
+        <v>0.819672131147541</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
+          <t>S_Arginine_and_Proline_Metabolism</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6514657980456027</v>
+        <v>1.569858712715855</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.468384074941452</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
+          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.07849293563579278</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8223684210526315</v>
+        <v>2.693208430913349</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
+          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2171552660152009</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.973684210526316</v>
+        <v>0.468384074941452</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
+          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.3924646781789639</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1644736842105263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>S_Butanoate_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.8686210640608035</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.5854800936768151</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis</t>
+          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.845819761129208</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8223684210526315</v>
+        <v>1.17096018735363</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
+          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.4343105320304018</v>
+        <v>0.07849293563579278</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1644736842105263</v>
+        <v>0.234192037470726</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
+          <t>S_Butanoate_Metabolism</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.3924646781789639</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3289473684210526</v>
+        <v>0.117096018735363</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.760043431053203</v>
+        <v>0.7849293563579277</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4934210526315789</v>
+        <v>0.351288056206089</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.520086862106406</v>
+        <v>0.3924646781789639</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4934210526315789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.085776330076004</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4934210526315789</v>
+        <v>0.234192037470726</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.280130293159609</v>
+        <v>0.9419152276295133</v>
       </c>
       <c r="C34" t="n">
-        <v>1.973684210526316</v>
+        <v>0.234192037470726</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3257328990228013</v>
+        <v>1.020408163265306</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3289473684210526</v>
+        <v>0.234192037470726</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.302931596091205</v>
+        <v>0.7849293563579277</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.468384074941452</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.5428881650380022</v>
+        <v>1.962323390894819</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3289473684210526</v>
+        <v>2.693208430913349</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.520086862106406</v>
+        <v>0.2354788069073783</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3289473684210526</v>
+        <v>0.117096018735363</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.411509229098806</v>
+        <v>1.177394034536892</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3289473684210526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.9771986970684038</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1644736842105263</v>
+        <v>0.117096018735363</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.194353963083605</v>
+        <v>1.098901098901099</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1155,50 +1896,50 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.411509229098806</v>
+        <v>0.7849293563579277</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>0.468384074941452</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.845819761129208</v>
+        <v>1.020408163265306</v>
       </c>
       <c r="C43" t="n">
-        <v>2.796052631578947</v>
+        <v>0.117096018735363</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="C44" t="n">
-        <v>1.151315789473684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9771986970684038</v>
+        <v>0.7849293563579277</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1207,573 +1948,612 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.194353963083605</v>
+        <v>1.177394034536892</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2.34192037470726</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.085776330076004</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3289473684210526</v>
+        <v>1.522248243559719</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.085776330076004</v>
+        <v>0.7064364207221351</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1644736842105263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.8686210640608035</v>
+        <v>1.098901098901099</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6578947368421052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.4343105320304018</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>0.117096018735363</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>S_Cysteine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.9771986970684038</v>
+        <v>0.7064364207221351</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8223684210526315</v>
+        <v>0.117096018735363</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2.171552660152009</v>
+        <v>0.3924646781789639</v>
       </c>
       <c r="C52" t="n">
-        <v>2.302631578947368</v>
+        <v>0.5854800936768151</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid__Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2.605863192182411</v>
+        <v>0.4709576138147566</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8223684210526315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>S_Formaldehyde_Metabolism</t>
+          <t>S_Cysteine_Metabolism</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.194353963083605</v>
+        <v>0.3139717425431711</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3289473684210526</v>
+        <v>0.351288056206089</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>S_Gluconeogenesis</t>
+          <t>S_Fatty_Acid_Metabolism</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1.628664495114007</v>
+        <v>8.006279434850864</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>12.41217798594848</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>S_Glutamate_Metabolism</t>
+          <t>S_Fatty_Acid__Biosynthesis</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.845819761129208</v>
+        <v>5.180533751962323</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>0.936768149882904</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>S_Glycerophospholipid_Metabolism</t>
+          <t>S_Formaldehyde_Metabolism</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2.38870792616721</v>
+        <v>0.2354788069073783</v>
       </c>
       <c r="C57" t="n">
-        <v>4.276315789473684</v>
+        <v>0.234192037470726</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>S_Glycine__Serine_and_threonine_metabolism</t>
+          <t>S_Gluconeogenesis</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.38870792616721</v>
+        <v>0.9419152276295133</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6578947368421052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>S_Glycolysis</t>
+          <t>S_Glutamate_Metabolism</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2.605863192182411</v>
+        <v>1.255886970172684</v>
       </c>
       <c r="C59" t="n">
-        <v>1.480263157894737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
+          <t>S_Glycerophospholipid_Metabolism</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.085776330076004</v>
+        <v>4.866562009419153</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3289473684210526</v>
+        <v>8.079625292740047</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>S_Heavy_Metal_Tolerance</t>
+          <t>S_Glycine__Serine_and_threonine_metabolism</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1.194353963083605</v>
+        <v>0.7849293563579277</v>
       </c>
       <c r="C61" t="n">
-        <v>2.138157894736842</v>
+        <v>0.351288056206089</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>S_Histidine_Metabolism</t>
+          <t>S_Glycolysis</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1.845819761129208</v>
+        <v>1.41287284144427</v>
       </c>
       <c r="C62" t="n">
-        <v>1.480263157894737</v>
+        <v>0.468384074941452</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>S_Inorganic_polyphosphates_metabolism</t>
+          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.4343105320304018</v>
+        <v>0.7064364207221351</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1644736842105263</v>
+        <v>0.117096018735363</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>S_Iron_uptake_and_metabolism</t>
+          <t>S_Heavy_Metal_Tolerance</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>4.017372421281216</v>
+        <v>1.098901098901099</v>
       </c>
       <c r="C64" t="n">
-        <v>1.151315789473684</v>
+        <v>1.873536299765808</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>S_Lysine_Metabolism</t>
+          <t>S_Histidine_Metabolism</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3.148751357220413</v>
+        <v>1.334379905808477</v>
       </c>
       <c r="C65" t="n">
-        <v>1.973684210526316</v>
+        <v>1.053864168618267</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>S_Methionine_Metabolism</t>
+          <t>S_Inorganic_polyphosphates_metabolism</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1.194353963083605</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="C66" t="n">
-        <v>1.80921052631579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>S_Nitrogen_Metabolism</t>
+          <t>S_Iron_uptake_and_metabolism</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>2.197802197802198</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6578947368421052</v>
+        <v>0.468384074941452</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>S_Nucleotide_Salvage_Pathway</t>
+          <t>S_Lysine_Metabolism</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.4343105320304018</v>
+        <v>1.569858712715855</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3289473684210526</v>
+        <v>0.936768149882904</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>S_Oxidative_Phosphorylation</t>
+          <t>S_Methionine_Metabolism</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>4.777415852334419</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6578947368421052</v>
+        <v>0.936768149882904</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>S_PHAs_Metabolism</t>
+          <t>S_Nitrogen_Metabolism</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1.194353963083605</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8223684210526315</v>
+        <v>0.468384074941452</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>S_Pentose_Phosphate_Pathway</t>
+          <t>S_Nucleotide_Salvage_Pathway</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.760043431053203</v>
+        <v>0.2354788069073783</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>0.468384074941452</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
+          <t>S_Oxidative_Phosphorylation</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1.845819761129208</v>
+        <v>0.7064364207221351</v>
       </c>
       <c r="C72" t="n">
-        <v>1.151315789473684</v>
+        <v>0.117096018735363</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>S_Phosphonate_and_phosphinate_metabolism</t>
+          <t>S_PHAs_Metabolism</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>11.61695447409733</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4934210526315789</v>
+        <v>0.468384074941452</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>S_Plant_growth_promoting</t>
+          <t>S_Pentose_Phosphate_Pathway</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.2171552660152009</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6578947368421052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>S_Purine_Metabolism</t>
+          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>5.428881650380022</v>
+        <v>1.177394034536892</v>
       </c>
       <c r="C75" t="n">
-        <v>2.467105263157895</v>
+        <v>1.053864168618267</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>S_Pyrimidine_Metabolism</t>
+          <t>S_Phosphonate_and_phosphinate_metabolism</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3.148751357220413</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>2.302631578947368</v>
+        <v>0.351288056206089</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>S_Pyruvate_Metabolism</t>
+          <t>S_Plant_growth_promoting</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.760043431053203</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8223684210526315</v>
+        <v>0.468384074941452</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>S_Starch_and_Sucrose_Metabolism</t>
+          <t>S_Purine_Metabolism</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1.194353963083605</v>
+        <v>4.631083202511774</v>
       </c>
       <c r="C78" t="n">
-        <v>1.80921052631579</v>
+        <v>1.756440281030445</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>S_Sulfur_Metabolism</t>
+          <t>S_Pyrimidine_Metabolism</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1.194353963083605</v>
+        <v>3.061224489795918</v>
       </c>
       <c r="C79" t="n">
-        <v>2.960526315789473</v>
+        <v>1.756440281030445</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>S_TCA_Cycle</t>
+          <t>S_Pyruvate_Metabolism</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2.714440825190011</v>
+        <v>0.1569858712715856</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4934210526315789</v>
+        <v>0.468384074941452</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__ABC_system</t>
+          <t>S_Starch_and_Sucrose_Metabolism</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>8.034744842562432</v>
+        <v>0.7849293563579277</v>
       </c>
       <c r="C81" t="n">
-        <v>10.85526315789474</v>
+        <v>1.053864168618267</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__Inner_Membrane</t>
+          <t>S_Sulfur_Metabolism</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>8.686210640608035</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C82" t="n">
-        <v>12.5</v>
+        <v>1.873536299765808</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__Outer_Membrane</t>
+          <t>S_TCA_Cycle</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2.605863192182411</v>
+        <v>1.41287284144427</v>
       </c>
       <c r="C83" t="n">
-        <v>4.276315789473684</v>
+        <v>0.117096018735363</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__solvent_extrusion</t>
+          <t>S_Transport__ABC_system</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.2171552660152009</v>
+        <v>2.040816326530612</v>
       </c>
       <c r="C84" t="n">
-        <v>2.467105263157895</v>
+        <v>3.51288056206089</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>S_Urea_cycleamino_group_metabolism</t>
+          <t>S_Transport__Inner_Membrane</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.8686210640608035</v>
+        <v>5.259026687598116</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3289473684210526</v>
+        <v>7.728337236533958</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
+          <t>S_Transport__Outer_Membrane</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1.302931596091205</v>
+        <v>4.552590266875981</v>
       </c>
       <c r="C86" t="n">
-        <v>1.80921052631579</v>
+        <v>9.484777517564403</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>S_Xenobiotic_tolerance</t>
+          <t>S_Transport__solvent_extrusion</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.1085776330076004</v>
+        <v>0.07849293563579278</v>
       </c>
       <c r="C87" t="n">
-        <v>1.31578947368421</v>
+        <v>2.927400468384075</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>S_tRNA_Charging</t>
+          <t>S_Urea_cycleamino_group_metabolism</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.3257328990228013</v>
+        <v>0.4709576138147566</v>
       </c>
       <c r="C88" t="n">
-        <v>3.947368421052631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
+          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1.491365777080063</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.17096018735363</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>S_Xenobiotic_tolerance</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.702576112412178</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>S_tRNA_Charging</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.1569858712715856</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2.34192037470726</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
           <t>Unassigned</t>
         </is>
       </c>
-      <c r="B89" t="n">
-        <v>2.714440825190011</v>
-      </c>
-      <c r="C89" t="n">
-        <v>5.427631578947369</v>
+      <c r="B92" t="n">
+        <v>0.7849293563579277</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.693208430913349</v>
       </c>
     </row>
   </sheetData>
@@ -1787,7 +2567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1815,144 +2595,885 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Amino acid</t>
+          <t>Acetate specific response</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.420927467300833</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>7.704918032786885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Carbon</t>
+          <t>Acetate utilization</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.8359096313912</v>
+        <v>0.1218026796589525</v>
       </c>
       <c r="C3" t="n">
-        <v>26.39344262295082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Element homeostasis</t>
+          <t>Acetoin catabolism</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.664684898929845</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.80327868852459</v>
+        <v>0.8445945945945946</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Energy generation</t>
+          <t>Alcohol/aromatics catabolism</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.78359096313912</v>
+        <v>0.1218026796589525</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3278688524590164</v>
+        <v>1.689189189189189</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Genomic</t>
+          <t>Alginate biosynthesis</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.307966706302021</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.80327868852459</v>
+        <v>1.013513513513514</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Phage</t>
+          <t>Amino acid transportation</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1189060642092747</v>
+        <v>1.827040194884287</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2.702702702702703</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secondary metabolite</t>
+          <t>Aromatic acid catabolism</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.615933412604043</v>
+        <v>1.218026796589525</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9836065573770493</v>
+        <v>3.378378378378379</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Stress</t>
+          <t>Benzoate catabolism</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.50653983353151</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>17.04918032786885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Structural components</t>
+          <t>Biosynthesis of lipodepsinonapeptide phytotoxins</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.243605359317905</v>
       </c>
       <c r="C10" t="n">
-        <v>1.147540983606557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Translation</t>
+          <t>Branched amino acid transportation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.994054696789536</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.311475409836065</v>
+        <v>0.1689189189189189</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Uncharacterized</t>
+          <t>C2 carbon metabolism</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23.42449464922711</v>
+        <v>1.46163215590743</v>
       </c>
       <c r="C12" t="n">
-        <v>17.04918032786885</v>
+        <v>1.689189189189189</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Cell mobility</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Chaeperone</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1218026796589525</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Citrate transportation</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6090133982947624</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.013513513513514</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Fatty acid catabolism</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2.801461632155907</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.689189189189189</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Flagella synthesis</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>FleQ related exporters, aldehyde stress</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1218026796589525</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1689189189189189</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Fructose catabolism</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1218026796589525</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5067567567567568</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Galactose ALE specific</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8526187576126675</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1689189189189189</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Glycine Betaine Catabolism</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3.045066991473813</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5.912162162162162</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Glycine metabolism</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3.288672350791717</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.871621621621622</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Glycolate catabolism</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3654080389768575</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Histidine metabolism</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.6090133982947624</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.182432432432432</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Homocysteine metabolism</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1218026796589525</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>ICE related</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1218026796589525</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Inorganic ion transport and metabolism</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.7308160779537149</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.6756756756756757</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Lactate catabolism</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.3654080389768575</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3378378378378378</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Light inducible iModulon</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.243605359317905</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Metal homeostasis</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.243605359317905</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Metal related response</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.6090133982947624</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.5067567567567568</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Muconate production study</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.339829476248477</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.689189189189189</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Multiple stress response</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3.288672350791717</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.858108108108108</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Multiple stress response, PP_3231-89</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_0943, hypothetical protein, 393 bp</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2.314250913520097</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.027027027027027</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_1176 hypothetical protein, 135 bp</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_1864, hypothetical protein, 153 bp</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_2520 hypothetical protein, 117 bp</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_5437 hypothetical protein, 183 bp</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Noise, kdpF, too small peptide</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>13.76370280146163</v>
+      </c>
+      <c r="C42" t="n">
+        <v>11.65540540540541</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Osmotic stress response</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9744214372716199</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.8445945945945946</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Osmotic stress, lipoprotein, membrane</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.3654080389768575</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.1689189189189189</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Oxidative stress</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.4872107186358099</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.6756756756756757</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>PP_2260-3, sugar transport</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>PP_3636-3639</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.5067567567567568</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Pentose and glucuronate interconversions</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.243605359317905</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.8445945945945946</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Phage related</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.1218026796589525</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Polyamine metabolism</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.9744214372716199</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.689189189189189</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Protein synthesis</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2.192448233861145</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.5067567567567568</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Pyoverdine biosynthesis</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2.43605359317905</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.013513513513514</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Redox state homeostasis</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1.339829476248477</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Ribose and lipid catabolism</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>4.38489646772229</v>
+      </c>
+      <c r="C54" t="n">
+        <v>9.121621621621621</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Ribose, nicotinic acid catabolism</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1.218026796589525</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.689189189189189</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Starvation response</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2.192448233861145</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3.547297297297297</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Stationary phase response</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3.045066991473813</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4.222972972972973</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Sugar catabolism</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1.096224116930572</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.689189189189189</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Sulfur metabolism</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.1218026796589525</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.1689189189189189</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>T6SS system</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>TCA cycle</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1.583434835566382</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.3378378378378378</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Translation</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2.314250913520097</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.6756756756756757</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Triethylamine hydrogen sulfate stress</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.1218026796589525</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.1689189189189189</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>TurA deletion</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>TurB deletion</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Tyrosine metabolism</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.4872107186358099</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.6756756756756757</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>5.84652862362972</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3.378378378378379</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>mfsR related</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.243605359317905</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>potentially iron metabolism</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.6090133982947624</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.3378378378378378</v>
       </c>
     </row>
   </sheetData>
@@ -1966,7 +3487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2001,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1639344262295082</v>
+        <v>0.6877579092159559</v>
       </c>
     </row>
     <row r="3">
@@ -2011,20 +3532,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1189060642092747</v>
+        <v>0.2734731084776664</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1639344262295082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>5.195989061075661</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2033,336 +3554,336 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>S_Alanine_and_Aspartate_Metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.189060642092747</v>
+        <v>0.2734731084776664</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1639344262295082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>S_Alginate_biosynthesis</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2378121284185493</v>
+        <v>0.09115770282588878</v>
       </c>
       <c r="C6" t="n">
-        <v>2.295081967213115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1189060642092747</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6557377049180327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
+          <t>S_Alanine_and_Aspartate_Metabolism</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.5469462169553327</v>
       </c>
       <c r="C8" t="n">
-        <v>1.311475409836065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
+          <t>S_Alginate_biosynthesis</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.819672131147541</v>
+        <v>3.026134800550206</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
+          <t>S_Alternate_Carbon</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.819672131147541</v>
+        <v>0.5502063273727648</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
+          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6557377049180327</v>
+        <v>1.10041265474553</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
+          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4756242568370986</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4918032786885246</v>
+        <v>0.2751031636863824</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
+          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5945303210463734</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.4126547455295735</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
+          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.853745541022592</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.557377049180328</v>
+        <v>0.8253094910591471</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
+          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.713436385255648</v>
+        <v>0.4557885141294439</v>
       </c>
       <c r="C15" t="n">
-        <v>0.819672131147541</v>
+        <v>0.4126547455295735</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
+          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2378121284185493</v>
+        <v>0.4557885141294439</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6557377049180327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4756242568370986</v>
+        <v>0.7292616226071102</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4918032786885246</v>
+        <v>3.851444291609354</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.09115770282588878</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4918032786885246</v>
+        <v>1.375515818431912</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5945303210463734</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.311475409836065</v>
+        <v>2.888583218707015</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>S_Arginine_and_Proline_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.378121284185494</v>
+        <v>0.1823154056517776</v>
       </c>
       <c r="C20" t="n">
-        <v>2.295081967213115</v>
+        <v>0.2751031636863824</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.426872770511296</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.967213114754099</v>
+        <v>0.4126547455295735</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1639344262295082</v>
+        <v>1.237964236588721</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
+          <t>S_Arginine_and_Proline_Metabolism</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9512485136741973</v>
+        <v>1.549680948040109</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6557377049180327</v>
+        <v>1.375515818431912</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
+          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.7292616226071102</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4918032786885246</v>
+        <v>1.375515818431912</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
+          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.664684898929846</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>2.786885245901639</v>
+        <v>0.1375515818431912</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
+          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.5469462169553327</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1639344262295082</v>
+        <v>0.5502063273727648</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>S_Butanoate_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.713436385255648</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4918032786885246</v>
+        <v>0.4126547455295735</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis</t>
+          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.02140309155767</v>
+        <v>0.8204193254329991</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4918032786885246</v>
+        <v>1.237964236588721</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
+          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.4756242568370986</v>
+        <v>0.09115770282588878</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1639344262295082</v>
+        <v>0.2751031636863824</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
+          <t>S_Butanoate_Metabolism</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.3646308113035551</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2371,24 +3892,24 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.8323424494649228</v>
+        <v>0.9115770282588878</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3278688524590164</v>
+        <v>0.2751031636863824</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.664684898929846</v>
+        <v>0.4557885141294439</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -2397,206 +3918,206 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.189060642092747</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4918032786885246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.497027348394768</v>
+        <v>1.093892433910665</v>
       </c>
       <c r="C34" t="n">
-        <v>1.639344262295082</v>
+        <v>0.1375515818431912</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2378121284185493</v>
+        <v>1.185050136736554</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3278688524590164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.426872770511296</v>
+        <v>0.9115770282588878</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.5502063273727648</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.5945303210463734</v>
+        <v>2.370100273473108</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>2.613480055020633</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.426872770511296</v>
+        <v>0.1823154056517776</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6557377049180327</v>
+        <v>0.1375515818431912</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.545778834720571</v>
+        <v>1.367365542388332</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1639344262295082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.070154577883472</v>
+        <v>0.6381039197812215</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4918032786885246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.189060642092747</v>
+        <v>1.093892433910665</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3278688524590164</v>
+        <v>0.1375515818431912</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.4756242568370986</v>
+        <v>0.9115770282588878</v>
       </c>
       <c r="C42" t="n">
-        <v>1.147540983606557</v>
+        <v>0.2751031636863824</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.426872770511296</v>
+        <v>1.093892433910665</v>
       </c>
       <c r="C43" t="n">
-        <v>2.950819672131148</v>
+        <v>0.6877579092159559</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>0.3646308113035551</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3278688524590164</v>
+        <v>0.1375515818431912</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1.070154577883472</v>
+        <v>0.5469462169553327</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>0.2751031636863824</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.307966706302021</v>
+        <v>0.9115770282588878</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2.888583218707015</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.189060642092747</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3278688524590164</v>
+        <v>0.2751031636863824</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.189060642092747</v>
+        <v>0.8204193254329991</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -2605,534 +4126,573 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9512485136741973</v>
+        <v>1.276207839562443</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6557377049180327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.4756242568370986</v>
+        <v>0.6381039197812215</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>0.1375515818431912</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>S_Cysteine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.356718192627824</v>
+        <v>0.8204193254329991</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9836065573770493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2.378121284185494</v>
+        <v>0.4557885141294439</v>
       </c>
       <c r="C52" t="n">
-        <v>2.295081967213115</v>
+        <v>0.6877579092159559</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid__Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2.734839476813317</v>
+        <v>0.5469462169553327</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3278688524590164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>S_Formaldehyde_Metabolism</t>
+          <t>S_Cysteine_Metabolism</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.189060642092747</v>
+        <v>0.09115770282588878</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3278688524590164</v>
+        <v>0.2751031636863824</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>S_Gluconeogenesis</t>
+          <t>S_Fatty_Acid_Metabolism</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1.78359096313912</v>
+        <v>9.298085688240656</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6557377049180327</v>
+        <v>14.58046767537827</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>S_Glutamate_Metabolism</t>
+          <t>S_Fatty_Acid__Biosynthesis</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.78359096313912</v>
+        <v>5.651777575205105</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9836065573770493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>S_Glycerophospholipid_Metabolism</t>
+          <t>S_Formaldehyde_Metabolism</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2.140309155766944</v>
+        <v>0.2734731084776664</v>
       </c>
       <c r="C57" t="n">
-        <v>2.622950819672131</v>
+        <v>0.2751031636863824</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>S_Glycine__Serine_and_threonine_metabolism</t>
+          <t>S_Gluconeogenesis</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.378121284185494</v>
+        <v>0.9115770282588878</v>
       </c>
       <c r="C58" t="n">
-        <v>1.639344262295082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>S_Glycolysis</t>
+          <t>S_Glutamate_Metabolism</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2.02140309155767</v>
+        <v>0.8204193254329991</v>
       </c>
       <c r="C59" t="n">
-        <v>1.80327868852459</v>
+        <v>0.4126547455295735</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
+          <t>S_Glycerophospholipid_Metabolism</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.5945303210463734</v>
+        <v>4.466727438468551</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6557377049180327</v>
+        <v>5.914718019257221</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>S_Heavy_Metal_Tolerance</t>
+          <t>S_Glycine__Serine_and_threonine_metabolism</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1189060642092747</v>
+        <v>0.6381039197812215</v>
       </c>
       <c r="C61" t="n">
-        <v>0.819672131147541</v>
+        <v>0.6877579092159559</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>S_Histidine_Metabolism</t>
+          <t>S_Glycolysis</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1.426872770511296</v>
+        <v>0.6381039197812215</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9836065573770493</v>
+        <v>0.6877579092159559</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>S_Inorganic_polyphosphates_metabolism</t>
+          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.4756242568370986</v>
+        <v>0.3646308113035551</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1639344262295082</v>
+        <v>0.4126547455295735</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>S_Iron_uptake_and_metabolism</t>
+          <t>S_Heavy_Metal_Tolerance</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>5.35077288941736</v>
+        <v>0.1823154056517776</v>
       </c>
       <c r="C64" t="n">
-        <v>2.950819672131148</v>
+        <v>0.5502063273727648</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>S_Lysine_Metabolism</t>
+          <t>S_Histidine_Metabolism</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2.734839476813317</v>
+        <v>1.002734731084777</v>
       </c>
       <c r="C65" t="n">
-        <v>2.786885245901639</v>
+        <v>0.5502063273727648</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>S_Methionine_Metabolism</t>
+          <t>S_Inorganic_polyphosphates_metabolism</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.8323424494649228</v>
+        <v>0.5469462169553327</v>
       </c>
       <c r="C66" t="n">
-        <v>0.819672131147541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>S_Nitrogen_Metabolism</t>
+          <t>S_Iron_uptake_and_metabolism</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>4.740200546946217</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6557377049180327</v>
+        <v>1.10041265474553</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>S_Nucleotide_Salvage_Pathway</t>
+          <t>S_Lysine_Metabolism</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.4756242568370986</v>
+        <v>0.9115770282588878</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3278688524590164</v>
+        <v>1.375515818431912</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>S_Oxidative_Phosphorylation</t>
+          <t>S_Methionine_Metabolism</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>5.707491082045184</v>
+        <v>0.3646308113035551</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>0.5502063273727648</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>S_PHAs_Metabolism</t>
+          <t>S_Nitrogen_Metabolism</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1.307966706302021</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.819672131147541</v>
+        <v>0.5502063273727648</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>S_Pentose_Phosphate_Pathway</t>
+          <t>S_Nucleotide_Salvage_Pathway</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.8323424494649228</v>
+        <v>0.1823154056517776</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3278688524590164</v>
+        <v>0.5502063273727648</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
+          <t>S_Oxidative_Phosphorylation</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1.902497027348395</v>
+        <v>0.8204193254329991</v>
       </c>
       <c r="C72" t="n">
-        <v>0.819672131147541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>S_Phosphonate_and_phosphinate_metabolism</t>
+          <t>S_PHAs_Metabolism</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>13.49134001823154</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>0.5502063273727648</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>S_Plant_growth_promoting</t>
+          <t>S_Pentose_Phosphate_Pathway</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.2378121284185493</v>
+        <v>0.5469462169553327</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6557377049180327</v>
+        <v>0.1375515818431912</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>S_Purine_Metabolism</t>
+          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>4.875148632580261</v>
+        <v>0.9115770282588878</v>
       </c>
       <c r="C75" t="n">
-        <v>2.459016393442623</v>
+        <v>0.5502063273727648</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>S_Pyrimidine_Metabolism</t>
+          <t>S_Phosphonate_and_phosphinate_metabolism</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2.259215219976219</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>1.311475409836065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>S_Pyruvate_Metabolism</t>
+          <t>S_Plant_growth_promoting</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.8323424494649228</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6557377049180327</v>
+        <v>0.2751031636863824</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>S_Starch_and_Sucrose_Metabolism</t>
+          <t>S_Purine_Metabolism</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1.307966706302021</v>
+        <v>2.825888787602552</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4918032786885246</v>
+        <v>2.475928473177441</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>S_Sulfur_Metabolism</t>
+          <t>S_Pyrimidine_Metabolism</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.356718192627824</v>
+        <v>2.005469462169553</v>
       </c>
       <c r="C79" t="n">
-        <v>1.311475409836065</v>
+        <v>1.375515818431912</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>S_TCA_Cycle</t>
+          <t>S_Pyruvate_Metabolism</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2.734839476813317</v>
+        <v>0.1823154056517776</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6557377049180327</v>
+        <v>0.4126547455295735</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__ABC_system</t>
+          <t>S_Starch_and_Sucrose_Metabolism</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>9.869203329369798</v>
+        <v>0.9115770282588878</v>
       </c>
       <c r="C81" t="n">
-        <v>17.21311475409836</v>
+        <v>0.5502063273727648</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__Inner_Membrane</t>
+          <t>S_Sulfur_Metabolism</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>9.274673008323424</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>11.47540983606557</v>
+        <v>0.1375515818431912</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__Outer_Membrane</t>
+          <t>S_TCA_Cycle</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2.972651605231867</v>
+        <v>1.45852324521422</v>
       </c>
       <c r="C83" t="n">
-        <v>4.262295081967213</v>
+        <v>0.4126547455295735</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__solvent_extrusion</t>
+          <t>S_Transport__ABC_system</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.2378121284185493</v>
+        <v>3.190519598906107</v>
       </c>
       <c r="C84" t="n">
-        <v>2.295081967213115</v>
+        <v>9.766162310866575</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>S_Urea_cycleamino_group_metabolism</t>
+          <t>S_Transport__Inner_Membrane</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1189060642092747</v>
+        <v>5.742935278030994</v>
       </c>
       <c r="C85" t="n">
-        <v>0.819672131147541</v>
+        <v>8.528198074277855</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
+          <t>S_Transport__Outer_Membrane</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.1189060642092747</v>
+        <v>4.922515952597994</v>
       </c>
       <c r="C86" t="n">
-        <v>2.131147540983606</v>
+        <v>6.052269601100413</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>S_Xenobiotic_tolerance</t>
+          <t>S_Transport__solvent_extrusion</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.1189060642092747</v>
+        <v>0.09115770282588878</v>
       </c>
       <c r="C87" t="n">
-        <v>1.147540983606557</v>
+        <v>3.026134800550206</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>S_tRNA_Charging</t>
+          <t>S_Urea_cycleamino_group_metabolism</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.2378121284185493</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>1.80327868852459</v>
+        <v>0.5502063273727648</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
+          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.513067400275103</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>S_Xenobiotic_tolerance</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.2751031636863824</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>S_tRNA_Charging</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.1823154056517776</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.10041265474553</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
           <t>Unassigned</t>
         </is>
       </c>
-      <c r="B89" t="n">
-        <v>2.140309155766944</v>
-      </c>
-      <c r="C89" t="n">
-        <v>4.590163934426229</v>
+      <c r="B92" t="n">
+        <v>0.6381039197812215</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1.925722145804677</v>
       </c>
     </row>
   </sheetData>
